--- a/AAII_Financials/Quarterly/AKBTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKBTY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -720,25 +720,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3579700</v>
+        <v>2657500</v>
       </c>
       <c r="E8" s="3">
-        <v>1493100</v>
+        <v>1108400</v>
       </c>
       <c r="F8" s="3">
-        <v>1999800</v>
+        <v>1484600</v>
       </c>
       <c r="G8" s="3">
-        <v>930900</v>
+        <v>691100</v>
       </c>
       <c r="H8" s="3">
-        <v>844500</v>
+        <v>626900</v>
       </c>
       <c r="I8" s="3">
-        <v>898300</v>
+        <v>666900</v>
       </c>
       <c r="J8" s="3">
-        <v>942000</v>
+        <v>699300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1429300</v>
+        <v>1061100</v>
       </c>
       <c r="E17" s="3">
-        <v>1153200</v>
+        <v>856100</v>
       </c>
       <c r="F17" s="3">
-        <v>1364700</v>
+        <v>1013100</v>
       </c>
       <c r="G17" s="3">
-        <v>585100</v>
+        <v>434400</v>
       </c>
       <c r="H17" s="3">
-        <v>543600</v>
+        <v>403600</v>
       </c>
       <c r="I17" s="3">
-        <v>630100</v>
+        <v>467800</v>
       </c>
       <c r="J17" s="3">
-        <v>706800</v>
+        <v>524700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -975,25 +975,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2150400</v>
+        <v>1596400</v>
       </c>
       <c r="E18" s="3">
-        <v>339900</v>
+        <v>252300</v>
       </c>
       <c r="F18" s="3">
-        <v>635100</v>
+        <v>471500</v>
       </c>
       <c r="G18" s="3">
-        <v>345800</v>
+        <v>256700</v>
       </c>
       <c r="H18" s="3">
-        <v>300800</v>
+        <v>223300</v>
       </c>
       <c r="I18" s="3">
-        <v>268200</v>
+        <v>199100</v>
       </c>
       <c r="J18" s="3">
-        <v>235300</v>
+        <v>174700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1178800</v>
+        <v>-875100</v>
       </c>
       <c r="E20" s="3">
-        <v>218100</v>
+        <v>161900</v>
       </c>
       <c r="F20" s="3">
-        <v>-537000</v>
+        <v>-398700</v>
       </c>
       <c r="G20" s="3">
-        <v>-122200</v>
+        <v>-90800</v>
       </c>
       <c r="H20" s="3">
-        <v>-105700</v>
+        <v>-78500</v>
       </c>
       <c r="I20" s="3">
-        <v>-92700</v>
+        <v>-68800</v>
       </c>
       <c r="J20" s="3">
-        <v>-60600</v>
+        <v>-45000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1046,25 +1046,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1020500</v>
+        <v>757600</v>
       </c>
       <c r="E21" s="3">
-        <v>563300</v>
+        <v>418200</v>
       </c>
       <c r="F21" s="3">
-        <v>129100</v>
+        <v>95900</v>
       </c>
       <c r="G21" s="3">
-        <v>239400</v>
+        <v>177700</v>
       </c>
       <c r="H21" s="3">
-        <v>209200</v>
+        <v>155300</v>
       </c>
       <c r="I21" s="3">
-        <v>191300</v>
+        <v>142000</v>
       </c>
       <c r="J21" s="3">
-        <v>185400</v>
+        <v>137700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>971600</v>
+        <v>721300</v>
       </c>
       <c r="E23" s="3">
-        <v>558000</v>
+        <v>414200</v>
       </c>
       <c r="F23" s="3">
-        <v>98100</v>
+        <v>72800</v>
       </c>
       <c r="G23" s="3">
-        <v>223600</v>
+        <v>166000</v>
       </c>
       <c r="H23" s="3">
-        <v>195100</v>
+        <v>144900</v>
       </c>
       <c r="I23" s="3">
-        <v>175400</v>
+        <v>130200</v>
       </c>
       <c r="J23" s="3">
-        <v>174600</v>
+        <v>129700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1133,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>679100</v>
+        <v>504100</v>
       </c>
       <c r="E24" s="3">
-        <v>154000</v>
+        <v>114300</v>
       </c>
       <c r="F24" s="3">
-        <v>151000</v>
+        <v>112100</v>
       </c>
       <c r="G24" s="3">
-        <v>63000</v>
+        <v>46800</v>
       </c>
       <c r="H24" s="3">
-        <v>46500</v>
+        <v>34500</v>
       </c>
       <c r="I24" s="3">
-        <v>39700</v>
+        <v>29500</v>
       </c>
       <c r="J24" s="3">
-        <v>38700</v>
+        <v>28800</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>292500</v>
+        <v>217200</v>
       </c>
       <c r="E26" s="3">
-        <v>404000</v>
+        <v>299900</v>
       </c>
       <c r="F26" s="3">
-        <v>-52900</v>
+        <v>-39300</v>
       </c>
       <c r="G26" s="3">
-        <v>160500</v>
+        <v>119200</v>
       </c>
       <c r="H26" s="3">
-        <v>148600</v>
+        <v>110300</v>
       </c>
       <c r="I26" s="3">
-        <v>135700</v>
+        <v>100800</v>
       </c>
       <c r="J26" s="3">
-        <v>135900</v>
+        <v>100900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>292500</v>
+        <v>217200</v>
       </c>
       <c r="E27" s="3">
-        <v>404000</v>
+        <v>299900</v>
       </c>
       <c r="F27" s="3">
-        <v>-52900</v>
+        <v>-39300</v>
       </c>
       <c r="G27" s="3">
-        <v>160500</v>
+        <v>119200</v>
       </c>
       <c r="H27" s="3">
-        <v>148600</v>
+        <v>110300</v>
       </c>
       <c r="I27" s="3">
-        <v>135700</v>
+        <v>100800</v>
       </c>
       <c r="J27" s="3">
-        <v>135900</v>
+        <v>100900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1365,25 +1365,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1178800</v>
+        <v>875100</v>
       </c>
       <c r="E32" s="3">
-        <v>-218100</v>
+        <v>-161900</v>
       </c>
       <c r="F32" s="3">
-        <v>537000</v>
+        <v>398700</v>
       </c>
       <c r="G32" s="3">
-        <v>122200</v>
+        <v>90800</v>
       </c>
       <c r="H32" s="3">
-        <v>105700</v>
+        <v>78500</v>
       </c>
       <c r="I32" s="3">
-        <v>92700</v>
+        <v>68800</v>
       </c>
       <c r="J32" s="3">
-        <v>60600</v>
+        <v>45000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>292500</v>
+        <v>217200</v>
       </c>
       <c r="E33" s="3">
-        <v>404000</v>
+        <v>299900</v>
       </c>
       <c r="F33" s="3">
-        <v>-52900</v>
+        <v>-39300</v>
       </c>
       <c r="G33" s="3">
-        <v>160500</v>
+        <v>119200</v>
       </c>
       <c r="H33" s="3">
-        <v>148600</v>
+        <v>110300</v>
       </c>
       <c r="I33" s="3">
-        <v>135700</v>
+        <v>100800</v>
       </c>
       <c r="J33" s="3">
-        <v>135900</v>
+        <v>100900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>292500</v>
+        <v>217200</v>
       </c>
       <c r="E35" s="3">
-        <v>404000</v>
+        <v>299900</v>
       </c>
       <c r="F35" s="3">
-        <v>-52900</v>
+        <v>-39300</v>
       </c>
       <c r="G35" s="3">
-        <v>160500</v>
+        <v>119200</v>
       </c>
       <c r="H35" s="3">
-        <v>148600</v>
+        <v>110300</v>
       </c>
       <c r="I35" s="3">
-        <v>135700</v>
+        <v>100800</v>
       </c>
       <c r="J35" s="3">
-        <v>135900</v>
+        <v>100900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1541,22 +1541,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9290300</v>
+        <v>6897000</v>
       </c>
       <c r="E41" s="3">
-        <v>10662700</v>
+        <v>7915800</v>
       </c>
       <c r="F41" s="3">
-        <v>4261500</v>
+        <v>3163600</v>
       </c>
       <c r="G41" s="3">
-        <v>3061500</v>
+        <v>2272800</v>
       </c>
       <c r="H41" s="3">
-        <v>2886100</v>
+        <v>2142600</v>
       </c>
       <c r="I41" s="3">
-        <v>2420900</v>
+        <v>1797200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1570,22 +1570,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241200</v>
+        <v>179100</v>
       </c>
       <c r="E42" s="3">
-        <v>2765600</v>
+        <v>2053200</v>
       </c>
       <c r="F42" s="3">
-        <v>102000</v>
+        <v>75700</v>
       </c>
       <c r="G42" s="3">
-        <v>1248100</v>
+        <v>926600</v>
       </c>
       <c r="H42" s="3">
-        <v>48600</v>
+        <v>36100</v>
       </c>
       <c r="I42" s="3">
-        <v>862200</v>
+        <v>640100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1744,22 +1744,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>611300</v>
+        <v>453800</v>
       </c>
       <c r="E48" s="3">
-        <v>607700</v>
+        <v>451100</v>
       </c>
       <c r="F48" s="3">
-        <v>295600</v>
+        <v>219400</v>
       </c>
       <c r="G48" s="3">
-        <v>303400</v>
+        <v>225200</v>
       </c>
       <c r="H48" s="3">
-        <v>268100</v>
+        <v>199100</v>
       </c>
       <c r="I48" s="3">
-        <v>248600</v>
+        <v>184600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1773,22 +1773,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>176700</v>
+        <v>131200</v>
       </c>
       <c r="E49" s="3">
-        <v>156100</v>
+        <v>115900</v>
       </c>
       <c r="F49" s="3">
-        <v>60900</v>
+        <v>45200</v>
       </c>
       <c r="G49" s="3">
-        <v>60200</v>
+        <v>44700</v>
       </c>
       <c r="H49" s="3">
-        <v>53300</v>
+        <v>39600</v>
       </c>
       <c r="I49" s="3">
-        <v>48200</v>
+        <v>35800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1860,22 +1860,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>322200</v>
+        <v>239200</v>
       </c>
       <c r="E52" s="3">
-        <v>42100</v>
+        <v>31200</v>
       </c>
       <c r="F52" s="3">
-        <v>16700</v>
+        <v>12400</v>
       </c>
       <c r="G52" s="3">
-        <v>20200</v>
+        <v>15000</v>
       </c>
       <c r="H52" s="3">
-        <v>29200</v>
+        <v>21600</v>
       </c>
       <c r="I52" s="3">
-        <v>48300</v>
+        <v>35800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1918,22 +1918,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50601300</v>
+        <v>37565500</v>
       </c>
       <c r="E54" s="3">
-        <v>55117200</v>
+        <v>40918100</v>
       </c>
       <c r="F54" s="3">
-        <v>27182400</v>
+        <v>20179700</v>
       </c>
       <c r="G54" s="3">
-        <v>24174100</v>
+        <v>17946400</v>
       </c>
       <c r="H54" s="3">
-        <v>22433800</v>
+        <v>16654500</v>
       </c>
       <c r="I54" s="3">
-        <v>19574900</v>
+        <v>14532100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2031,22 +2031,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230400</v>
+        <v>171000</v>
       </c>
       <c r="E59" s="3">
-        <v>107000</v>
+        <v>79400</v>
       </c>
       <c r="F59" s="3">
-        <v>54000</v>
+        <v>40100</v>
       </c>
       <c r="G59" s="3">
-        <v>56900</v>
+        <v>42300</v>
       </c>
       <c r="H59" s="3">
-        <v>49600</v>
+        <v>36800</v>
       </c>
       <c r="I59" s="3">
-        <v>16500</v>
+        <v>12300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2089,22 +2089,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3856800</v>
+        <v>2863200</v>
       </c>
       <c r="E61" s="3">
-        <v>5347300</v>
+        <v>3969700</v>
       </c>
       <c r="F61" s="3">
-        <v>2589900</v>
+        <v>1922700</v>
       </c>
       <c r="G61" s="3">
-        <v>2219200</v>
+        <v>1647500</v>
       </c>
       <c r="H61" s="3">
-        <v>2202100</v>
+        <v>1634800</v>
       </c>
       <c r="I61" s="3">
-        <v>1834700</v>
+        <v>1362000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2118,22 +2118,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>529700</v>
+        <v>393200</v>
       </c>
       <c r="E62" s="3">
-        <v>463700</v>
+        <v>344200</v>
       </c>
       <c r="F62" s="3">
-        <v>153300</v>
+        <v>113800</v>
       </c>
       <c r="G62" s="3">
-        <v>132700</v>
+        <v>98500</v>
       </c>
       <c r="H62" s="3">
-        <v>110800</v>
+        <v>82300</v>
       </c>
       <c r="I62" s="3">
-        <v>122800</v>
+        <v>91200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2234,22 +2234,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44654200</v>
+        <v>33150500</v>
       </c>
       <c r="E66" s="3">
-        <v>49474100</v>
+        <v>36728700</v>
       </c>
       <c r="F66" s="3">
-        <v>23780500</v>
+        <v>17654200</v>
       </c>
       <c r="G66" s="3">
-        <v>20993900</v>
+        <v>15585500</v>
       </c>
       <c r="H66" s="3">
-        <v>19516800</v>
+        <v>14489000</v>
       </c>
       <c r="I66" s="3">
-        <v>16820200</v>
+        <v>12487000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2392,22 +2392,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2128400</v>
+        <v>1580100</v>
       </c>
       <c r="E72" s="3">
-        <v>1716900</v>
+        <v>1274600</v>
       </c>
       <c r="F72" s="3">
-        <v>2594100</v>
+        <v>1925800</v>
       </c>
       <c r="G72" s="3">
-        <v>2423200</v>
+        <v>1799000</v>
       </c>
       <c r="H72" s="3">
-        <v>2217700</v>
+        <v>1646400</v>
       </c>
       <c r="I72" s="3">
-        <v>2096700</v>
+        <v>1556600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2508,22 +2508,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5947100</v>
+        <v>4415000</v>
       </c>
       <c r="E76" s="3">
-        <v>5643100</v>
+        <v>4189400</v>
       </c>
       <c r="F76" s="3">
-        <v>3401900</v>
+        <v>2525500</v>
       </c>
       <c r="G76" s="3">
-        <v>3180200</v>
+        <v>2360900</v>
       </c>
       <c r="H76" s="3">
-        <v>2917000</v>
+        <v>2165500</v>
       </c>
       <c r="I76" s="3">
-        <v>2754700</v>
+        <v>2045000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>292500</v>
+        <v>217200</v>
       </c>
       <c r="E81" s="3">
-        <v>404000</v>
+        <v>299900</v>
       </c>
       <c r="F81" s="3">
-        <v>-52900</v>
+        <v>-39300</v>
       </c>
       <c r="G81" s="3">
-        <v>160500</v>
+        <v>119200</v>
       </c>
       <c r="H81" s="3">
-        <v>148600</v>
+        <v>110300</v>
       </c>
       <c r="I81" s="3">
-        <v>135700</v>
+        <v>100800</v>
       </c>
       <c r="J81" s="3">
-        <v>135900</v>
+        <v>100900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2642,25 +2642,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48900</v>
+        <v>36300</v>
       </c>
       <c r="E83" s="3">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="F83" s="3">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="G83" s="3">
-        <v>15800</v>
+        <v>11700</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>10400</v>
       </c>
       <c r="I83" s="3">
-        <v>15900</v>
+        <v>11800</v>
       </c>
       <c r="J83" s="3">
-        <v>10800</v>
+        <v>8000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>886800</v>
+        <v>658400</v>
       </c>
       <c r="E89" s="3">
-        <v>766200</v>
+        <v>568800</v>
       </c>
       <c r="F89" s="3">
-        <v>1587900</v>
+        <v>1178800</v>
       </c>
       <c r="G89" s="3">
-        <v>-73700</v>
+        <v>-54700</v>
       </c>
       <c r="H89" s="3">
-        <v>-76500</v>
+        <v>-56800</v>
       </c>
       <c r="I89" s="3">
-        <v>1046800</v>
+        <v>777100</v>
       </c>
       <c r="J89" s="3">
-        <v>-168000</v>
+        <v>-124700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2945,25 +2945,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1772400</v>
+        <v>-1315800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1765600</v>
+        <v>-1310800</v>
       </c>
       <c r="F94" s="3">
-        <v>-587100</v>
+        <v>-435800</v>
       </c>
       <c r="G94" s="3">
-        <v>-30700</v>
+        <v>-22800</v>
       </c>
       <c r="H94" s="3">
-        <v>-601800</v>
+        <v>-446700</v>
       </c>
       <c r="I94" s="3">
-        <v>-870000</v>
+        <v>-645900</v>
       </c>
       <c r="J94" s="3">
-        <v>-352800</v>
+        <v>-261900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -2987,13 +2987,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-87200</v>
+        <v>-64700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31600</v>
+        <v>-23500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3103,25 +3103,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2200</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>521100</v>
+        <v>386900</v>
       </c>
       <c r="F100" s="3">
-        <v>584900</v>
+        <v>434200</v>
       </c>
       <c r="G100" s="3">
-        <v>26600</v>
+        <v>19800</v>
       </c>
       <c r="H100" s="3">
-        <v>315800</v>
+        <v>234400</v>
       </c>
       <c r="I100" s="3">
-        <v>-209200</v>
+        <v>-155300</v>
       </c>
       <c r="J100" s="3">
-        <v>402300</v>
+        <v>298700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3132,25 +3132,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>444300</v>
+        <v>329800</v>
       </c>
       <c r="E101" s="3">
-        <v>485100</v>
+        <v>360100</v>
       </c>
       <c r="F101" s="3">
-        <v>182500</v>
+        <v>135500</v>
       </c>
       <c r="G101" s="3">
-        <v>67600</v>
+        <v>50200</v>
       </c>
       <c r="H101" s="3">
-        <v>110100</v>
+        <v>81800</v>
       </c>
       <c r="I101" s="3">
-        <v>49500</v>
+        <v>36800</v>
       </c>
       <c r="J101" s="3">
-        <v>114500</v>
+        <v>85000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-443500</v>
+        <v>-329200</v>
       </c>
       <c r="E102" s="3">
-        <v>468000</v>
+        <v>347400</v>
       </c>
       <c r="F102" s="3">
-        <v>1307000</v>
+        <v>970300</v>
       </c>
       <c r="G102" s="3">
-        <v>-10200</v>
+        <v>-7600</v>
       </c>
       <c r="H102" s="3">
-        <v>-252400</v>
+        <v>-187400</v>
       </c>
       <c r="I102" s="3">
-        <v>17100</v>
+        <v>12700</v>
       </c>
       <c r="J102" s="3">
-        <v>-3900</v>
+        <v>-2900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/AKBTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKBTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>AKBTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2657500</v>
+        <v>2771400</v>
       </c>
       <c r="E8" s="3">
-        <v>1108400</v>
+        <v>2481800</v>
       </c>
       <c r="F8" s="3">
-        <v>1484600</v>
+        <v>2177000</v>
       </c>
       <c r="G8" s="3">
-        <v>691100</v>
+        <v>1386500</v>
       </c>
       <c r="H8" s="3">
-        <v>626900</v>
+        <v>645400</v>
       </c>
       <c r="I8" s="3">
-        <v>666900</v>
+        <v>585500</v>
       </c>
       <c r="J8" s="3">
+        <v>625800</v>
+      </c>
+      <c r="K8" s="3">
         <v>699300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,8 +779,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +811,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +921,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1061100</v>
+        <v>1459800</v>
       </c>
       <c r="E17" s="3">
-        <v>856100</v>
+        <v>991000</v>
       </c>
       <c r="F17" s="3">
-        <v>1013100</v>
+        <v>1652100</v>
       </c>
       <c r="G17" s="3">
-        <v>434400</v>
+        <v>946200</v>
       </c>
       <c r="H17" s="3">
-        <v>403600</v>
+        <v>405600</v>
       </c>
       <c r="I17" s="3">
-        <v>467800</v>
+        <v>376900</v>
       </c>
       <c r="J17" s="3">
+        <v>439900</v>
+      </c>
+      <c r="K17" s="3">
         <v>524700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1596400</v>
+        <v>1311600</v>
       </c>
       <c r="E18" s="3">
-        <v>252300</v>
+        <v>1490900</v>
       </c>
       <c r="F18" s="3">
-        <v>471500</v>
+        <v>524900</v>
       </c>
       <c r="G18" s="3">
-        <v>256700</v>
+        <v>440300</v>
       </c>
       <c r="H18" s="3">
-        <v>223300</v>
+        <v>239800</v>
       </c>
       <c r="I18" s="3">
-        <v>199100</v>
+        <v>208600</v>
       </c>
       <c r="J18" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K18" s="3">
         <v>174700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,66 +1044,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-875100</v>
+        <v>-454700</v>
       </c>
       <c r="E20" s="3">
-        <v>161900</v>
+        <v>-817300</v>
       </c>
       <c r="F20" s="3">
-        <v>-398700</v>
+        <v>-574100</v>
       </c>
       <c r="G20" s="3">
-        <v>-90800</v>
+        <v>-372300</v>
       </c>
       <c r="H20" s="3">
-        <v>-78500</v>
+        <v>-84800</v>
       </c>
       <c r="I20" s="3">
-        <v>-68800</v>
+        <v>-73300</v>
       </c>
       <c r="J20" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-45000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>757600</v>
+        <v>906300</v>
       </c>
       <c r="E21" s="3">
-        <v>418200</v>
+        <v>707500</v>
       </c>
       <c r="F21" s="3">
-        <v>95900</v>
+        <v>-1700</v>
       </c>
       <c r="G21" s="3">
-        <v>177700</v>
+        <v>89500</v>
       </c>
       <c r="H21" s="3">
-        <v>155300</v>
+        <v>166000</v>
       </c>
       <c r="I21" s="3">
-        <v>142000</v>
+        <v>145000</v>
       </c>
       <c r="J21" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K21" s="3">
         <v>137700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,66 +1138,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>721300</v>
+        <v>856900</v>
       </c>
       <c r="E23" s="3">
-        <v>414200</v>
+        <v>673600</v>
       </c>
       <c r="F23" s="3">
-        <v>72800</v>
+        <v>-49200</v>
       </c>
       <c r="G23" s="3">
-        <v>166000</v>
+        <v>68000</v>
       </c>
       <c r="H23" s="3">
-        <v>144900</v>
+        <v>155000</v>
       </c>
       <c r="I23" s="3">
-        <v>130200</v>
+        <v>135300</v>
       </c>
       <c r="J23" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K23" s="3">
         <v>129700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>504100</v>
+        <v>340500</v>
       </c>
       <c r="E24" s="3">
-        <v>114300</v>
+        <v>470800</v>
       </c>
       <c r="F24" s="3">
-        <v>112100</v>
+        <v>237400</v>
       </c>
       <c r="G24" s="3">
-        <v>46800</v>
+        <v>104700</v>
       </c>
       <c r="H24" s="3">
-        <v>34500</v>
+        <v>43700</v>
       </c>
       <c r="I24" s="3">
-        <v>29500</v>
+        <v>32300</v>
       </c>
       <c r="J24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K24" s="3">
         <v>28800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217200</v>
+        <v>516400</v>
       </c>
       <c r="E26" s="3">
-        <v>299900</v>
+        <v>202800</v>
       </c>
       <c r="F26" s="3">
-        <v>-39300</v>
+        <v>-286600</v>
       </c>
       <c r="G26" s="3">
-        <v>119200</v>
+        <v>-36700</v>
       </c>
       <c r="H26" s="3">
-        <v>110300</v>
+        <v>111300</v>
       </c>
       <c r="I26" s="3">
-        <v>100800</v>
+        <v>103000</v>
       </c>
       <c r="J26" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K26" s="3">
         <v>100900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>217200</v>
+        <v>516400</v>
       </c>
       <c r="E27" s="3">
-        <v>299900</v>
+        <v>202800</v>
       </c>
       <c r="F27" s="3">
-        <v>-39300</v>
+        <v>-286600</v>
       </c>
       <c r="G27" s="3">
-        <v>119200</v>
+        <v>-36700</v>
       </c>
       <c r="H27" s="3">
-        <v>110300</v>
+        <v>111300</v>
       </c>
       <c r="I27" s="3">
-        <v>100800</v>
+        <v>103000</v>
       </c>
       <c r="J27" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K27" s="3">
         <v>100900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>875100</v>
+        <v>454700</v>
       </c>
       <c r="E32" s="3">
-        <v>-161900</v>
+        <v>817300</v>
       </c>
       <c r="F32" s="3">
-        <v>398700</v>
+        <v>574100</v>
       </c>
       <c r="G32" s="3">
-        <v>90800</v>
+        <v>372300</v>
       </c>
       <c r="H32" s="3">
-        <v>78500</v>
+        <v>84800</v>
       </c>
       <c r="I32" s="3">
-        <v>68800</v>
+        <v>73300</v>
       </c>
       <c r="J32" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K32" s="3">
         <v>45000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>217200</v>
+        <v>516400</v>
       </c>
       <c r="E33" s="3">
-        <v>299900</v>
+        <v>202800</v>
       </c>
       <c r="F33" s="3">
-        <v>-39300</v>
+        <v>-286600</v>
       </c>
       <c r="G33" s="3">
-        <v>119200</v>
+        <v>-36700</v>
       </c>
       <c r="H33" s="3">
-        <v>110300</v>
+        <v>111300</v>
       </c>
       <c r="I33" s="3">
-        <v>100800</v>
+        <v>103000</v>
       </c>
       <c r="J33" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K33" s="3">
         <v>100900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>217200</v>
+        <v>516400</v>
       </c>
       <c r="E35" s="3">
-        <v>299900</v>
+        <v>202800</v>
       </c>
       <c r="F35" s="3">
-        <v>-39300</v>
+        <v>-286600</v>
       </c>
       <c r="G35" s="3">
-        <v>119200</v>
+        <v>-36700</v>
       </c>
       <c r="H35" s="3">
-        <v>110300</v>
+        <v>111300</v>
       </c>
       <c r="I35" s="3">
-        <v>100800</v>
+        <v>103000</v>
       </c>
       <c r="J35" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K35" s="3">
         <v>100900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,66 +1621,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6897000</v>
+        <v>5864600</v>
       </c>
       <c r="E41" s="3">
-        <v>7915800</v>
+        <v>6441100</v>
       </c>
       <c r="F41" s="3">
-        <v>3163600</v>
+        <v>8530700</v>
       </c>
       <c r="G41" s="3">
-        <v>2272800</v>
+        <v>2954500</v>
       </c>
       <c r="H41" s="3">
-        <v>2142600</v>
+        <v>2122600</v>
       </c>
       <c r="I41" s="3">
-        <v>1797200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>2001000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1678400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>179100</v>
+        <v>370000</v>
       </c>
       <c r="E42" s="3">
-        <v>2053200</v>
+        <v>167200</v>
       </c>
       <c r="F42" s="3">
-        <v>75700</v>
+        <v>1944100</v>
       </c>
       <c r="G42" s="3">
-        <v>926600</v>
+        <v>70700</v>
       </c>
       <c r="H42" s="3">
-        <v>36100</v>
+        <v>865300</v>
       </c>
       <c r="I42" s="3">
-        <v>640100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>33700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>597800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1622,8 +1715,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,8 +1747,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1680,8 +1779,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1709,8 +1811,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,66 +1843,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>453800</v>
+        <v>623500</v>
       </c>
       <c r="E48" s="3">
-        <v>451100</v>
+        <v>423800</v>
       </c>
       <c r="F48" s="3">
-        <v>219400</v>
+        <v>486200</v>
       </c>
       <c r="G48" s="3">
-        <v>225200</v>
+        <v>204900</v>
       </c>
       <c r="H48" s="3">
-        <v>199100</v>
+        <v>210400</v>
       </c>
       <c r="I48" s="3">
-        <v>184600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>185900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>172400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131200</v>
+        <v>155600</v>
       </c>
       <c r="E49" s="3">
-        <v>115900</v>
+        <v>122500</v>
       </c>
       <c r="F49" s="3">
-        <v>45200</v>
+        <v>124900</v>
       </c>
       <c r="G49" s="3">
-        <v>44700</v>
+        <v>42200</v>
       </c>
       <c r="H49" s="3">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="I49" s="3">
-        <v>35800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>37000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>33400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>239200</v>
+        <v>32900</v>
       </c>
       <c r="E52" s="3">
-        <v>31200</v>
+        <v>19100</v>
       </c>
       <c r="F52" s="3">
-        <v>12400</v>
+        <v>26500</v>
       </c>
       <c r="G52" s="3">
-        <v>15000</v>
+        <v>11600</v>
       </c>
       <c r="H52" s="3">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="I52" s="3">
-        <v>35800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>20200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>33100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37565500</v>
+        <v>40356500</v>
       </c>
       <c r="E54" s="3">
-        <v>40918100</v>
+        <v>35082500</v>
       </c>
       <c r="F54" s="3">
-        <v>20179700</v>
+        <v>44096500</v>
       </c>
       <c r="G54" s="3">
-        <v>17946400</v>
+        <v>18845900</v>
       </c>
       <c r="H54" s="3">
-        <v>16654500</v>
+        <v>16760200</v>
       </c>
       <c r="I54" s="3">
-        <v>14532100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>15553600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13571500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,8 +2097,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1996,8 +2127,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2025,37 +2159,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171000</v>
+        <v>342100</v>
       </c>
       <c r="E59" s="3">
-        <v>79400</v>
+        <v>159700</v>
       </c>
       <c r="F59" s="3">
-        <v>40100</v>
+        <v>85600</v>
       </c>
       <c r="G59" s="3">
-        <v>42300</v>
+        <v>37500</v>
       </c>
       <c r="H59" s="3">
-        <v>36800</v>
+        <v>39500</v>
       </c>
       <c r="I59" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>34400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>11500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2083,66 +2223,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2863200</v>
+        <v>2425900</v>
       </c>
       <c r="E61" s="3">
-        <v>3969700</v>
+        <v>2674000</v>
       </c>
       <c r="F61" s="3">
-        <v>1922700</v>
+        <v>4278100</v>
       </c>
       <c r="G61" s="3">
-        <v>1647500</v>
+        <v>1795600</v>
       </c>
       <c r="H61" s="3">
-        <v>1634800</v>
+        <v>1538600</v>
       </c>
       <c r="I61" s="3">
-        <v>1362000</v>
+        <v>1526800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1272000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>393200</v>
+        <v>366200</v>
       </c>
       <c r="E62" s="3">
-        <v>344200</v>
+        <v>367300</v>
       </c>
       <c r="F62" s="3">
-        <v>113800</v>
+        <v>357000</v>
       </c>
       <c r="G62" s="3">
-        <v>98500</v>
+        <v>106300</v>
       </c>
       <c r="H62" s="3">
-        <v>82300</v>
+        <v>92000</v>
       </c>
       <c r="I62" s="3">
-        <v>91200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>76800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>85100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33150500</v>
+        <v>34857500</v>
       </c>
       <c r="E66" s="3">
-        <v>36728700</v>
+        <v>30959300</v>
       </c>
       <c r="F66" s="3">
-        <v>17654200</v>
+        <v>39581700</v>
       </c>
       <c r="G66" s="3">
-        <v>15585500</v>
+        <v>16487300</v>
       </c>
       <c r="H66" s="3">
-        <v>14489000</v>
+        <v>14555400</v>
       </c>
       <c r="I66" s="3">
-        <v>12487000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>13531300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>11661700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1580100</v>
+        <v>2558000</v>
       </c>
       <c r="E72" s="3">
-        <v>1274600</v>
+        <v>1475600</v>
       </c>
       <c r="F72" s="3">
-        <v>1925800</v>
+        <v>1431800</v>
       </c>
       <c r="G72" s="3">
-        <v>1799000</v>
+        <v>1798600</v>
       </c>
       <c r="H72" s="3">
-        <v>1646400</v>
+        <v>1680100</v>
       </c>
       <c r="I72" s="3">
-        <v>1556600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>1537600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1453700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4415000</v>
+        <v>5499000</v>
       </c>
       <c r="E76" s="3">
-        <v>4189400</v>
+        <v>4123200</v>
       </c>
       <c r="F76" s="3">
-        <v>2525500</v>
+        <v>4514800</v>
       </c>
       <c r="G76" s="3">
-        <v>2360900</v>
+        <v>2358600</v>
       </c>
       <c r="H76" s="3">
-        <v>2165500</v>
+        <v>2204900</v>
       </c>
       <c r="I76" s="3">
-        <v>2045000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>2022400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1909900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>217200</v>
+        <v>516400</v>
       </c>
       <c r="E81" s="3">
-        <v>299900</v>
+        <v>202800</v>
       </c>
       <c r="F81" s="3">
-        <v>-39300</v>
+        <v>-286600</v>
       </c>
       <c r="G81" s="3">
-        <v>119200</v>
+        <v>-36700</v>
       </c>
       <c r="H81" s="3">
-        <v>110300</v>
+        <v>111300</v>
       </c>
       <c r="I81" s="3">
-        <v>100800</v>
+        <v>103000</v>
       </c>
       <c r="J81" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K81" s="3">
         <v>100900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2834,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36300</v>
+        <v>49400</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>33900</v>
       </c>
       <c r="F83" s="3">
-        <v>23000</v>
+        <v>47400</v>
       </c>
       <c r="G83" s="3">
-        <v>11700</v>
+        <v>21500</v>
       </c>
       <c r="H83" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="I83" s="3">
-        <v>11800</v>
+        <v>9700</v>
       </c>
       <c r="J83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>658400</v>
+        <v>708700</v>
       </c>
       <c r="E89" s="3">
-        <v>568800</v>
+        <v>-106600</v>
       </c>
       <c r="F89" s="3">
-        <v>1178800</v>
+        <v>1194400</v>
       </c>
       <c r="G89" s="3">
-        <v>-54700</v>
+        <v>796100</v>
       </c>
       <c r="H89" s="3">
-        <v>-56800</v>
+        <v>-51100</v>
       </c>
       <c r="I89" s="3">
-        <v>777100</v>
+        <v>-53100</v>
       </c>
       <c r="J89" s="3">
+        <v>725800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-124700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3046800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1691000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-666500</v>
-      </c>
       <c r="F91" s="3">
+        <v>-1624400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-433800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-525300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-613300</v>
-      </c>
       <c r="I91" s="3">
+        <v>-611900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1032300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1315800</v>
+        <v>-891400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1310800</v>
+        <v>-1228800</v>
       </c>
       <c r="F94" s="3">
-        <v>-435800</v>
+        <v>-1224100</v>
       </c>
       <c r="G94" s="3">
-        <v>-22800</v>
+        <v>-407000</v>
       </c>
       <c r="H94" s="3">
-        <v>-446700</v>
+        <v>-21300</v>
       </c>
       <c r="I94" s="3">
-        <v>-645900</v>
+        <v>-417200</v>
       </c>
       <c r="J94" s="3">
+        <v>-603200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-261900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,22 +3214,23 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-64700</v>
+        <v>-9300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-60400</v>
       </c>
       <c r="F96" s="3">
-        <v>-23500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-21900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>-268100</v>
       </c>
       <c r="E100" s="3">
-        <v>386900</v>
+        <v>-1500</v>
       </c>
       <c r="F100" s="3">
-        <v>434200</v>
+        <v>1268200</v>
       </c>
       <c r="G100" s="3">
-        <v>19800</v>
+        <v>405500</v>
       </c>
       <c r="H100" s="3">
-        <v>234400</v>
+        <v>18400</v>
       </c>
       <c r="I100" s="3">
-        <v>-155300</v>
+        <v>218900</v>
       </c>
       <c r="J100" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="K100" s="3">
         <v>298700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>329800</v>
+        <v>157300</v>
       </c>
       <c r="E101" s="3">
-        <v>360100</v>
+        <v>308000</v>
       </c>
       <c r="F101" s="3">
-        <v>135500</v>
+        <v>336300</v>
       </c>
       <c r="G101" s="3">
-        <v>50200</v>
+        <v>126600</v>
       </c>
       <c r="H101" s="3">
-        <v>81800</v>
+        <v>46900</v>
       </c>
       <c r="I101" s="3">
-        <v>36800</v>
+        <v>76400</v>
       </c>
       <c r="J101" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K101" s="3">
         <v>85000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-329200</v>
+        <v>-293500</v>
       </c>
       <c r="E102" s="3">
-        <v>347400</v>
+        <v>-1029000</v>
       </c>
       <c r="F102" s="3">
-        <v>970300</v>
+        <v>629200</v>
       </c>
       <c r="G102" s="3">
-        <v>-7600</v>
+        <v>601400</v>
       </c>
       <c r="H102" s="3">
-        <v>-187400</v>
+        <v>-7100</v>
       </c>
       <c r="I102" s="3">
-        <v>12700</v>
+        <v>-175000</v>
       </c>
       <c r="J102" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
